--- a/readme.xlsx
+++ b/readme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/python/LightGCN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E569449-56AC-364D-B93A-1FA85A9CEF2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9721D0F-B417-1E41-8349-5ADE2C976C13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="500" windowWidth="24940" windowHeight="13640" xr2:uid="{2228A834-1122-9746-8F0D-02FE909CE57F}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +148,12 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF78C6C"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,6 +190,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,7 +714,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -899,6 +908,15 @@
       <c r="F14">
         <v>0.1</v>
       </c>
+      <c r="G14" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
